--- a/data/trans_camb/P37_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P37_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,15</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>4,77</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,68</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,11</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,01</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,06</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 6,98</t>
+          <t>-6,56; 6,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 8,54</t>
+          <t>-4,81; 7,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 9,25</t>
+          <t>-2,86; 11,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 5,12</t>
+          <t>-5,29; 9,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 6,69</t>
+          <t>-1,64; 10,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 11,53</t>
+          <t>-5,96; 4,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 3,88</t>
+          <t>-3,41; 7,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 6,68</t>
+          <t>-5,73; 5,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 8,44</t>
+          <t>-0,49; 10,61</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,36; 5,07</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; 3,65</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,49; 5,77</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,57; 6,79</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 7,98</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 5,76</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>-0,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,82%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>-1,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-0,05%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>11,88%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-0,47%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-0,96%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4,32%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>9,74%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>4,79%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 20,46</t>
+          <t>-15,85; 17,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 24,85</t>
+          <t>-11,55; 21,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 27,04</t>
+          <t>-7,04; 32,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 14,17</t>
+          <t>-11,08; 24,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 18,03</t>
+          <t>-3,77; 28,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 31,91</t>
+          <t>-13,95; 11,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 11,12</t>
+          <t>-7,93; 19,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 19,26</t>
+          <t>-13,59; 14,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 23,74</t>
+          <t>-1,09; 28,86</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-11,03; 11,94</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-10,96; 9,92</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-6,1; 15,73</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-6,21; 18,29</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 20,57</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 13,94</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,29</t>
+          <t>-5,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>-3,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>8,81</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>-6,74</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-3,31</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,78</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>5,04</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-5,45</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-4,12</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 1,15</t>
+          <t>-13,11; 0,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 6,18</t>
+          <t>-8,71; 6,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 12,29</t>
+          <t>-6,76; 8,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 7,28</t>
+          <t>-12,2; 3,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 8,96</t>
+          <t>-15,07; 4,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 14,04</t>
+          <t>-3,82; 8,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 2,68</t>
+          <t>-2,15; 9,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 6,17</t>
+          <t>1,6; 15,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 10,68</t>
+          <t>-15,02; 1,73</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-12,72; 6,2</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-6,6; 2,48</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,79; 5,88</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 10,12</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-10,95; 0,54</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-10,58; 2,32</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-15,47%</t>
+          <t>-16,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,88%</t>
+          <t>-2,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>-10,76%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>-13,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-5,17%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>24,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>-14,94%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-7,93%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-4,95%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>14,05%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-13,31%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-10,41%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,17; 4,03</t>
+          <t>-32,88; 1,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 20,35</t>
+          <t>-21,99; 19,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 39,99</t>
+          <t>-17,49; 25,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 21,81</t>
+          <t>-31,31; 10,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 27,67</t>
+          <t>-35,53; 13,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 41,98</t>
+          <t>-9,61; 26,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 8,02</t>
+          <t>-5,14; 30,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 19,2</t>
+          <t>4,24; 46,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 31,96</t>
+          <t>-31,55; 5,38</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-27,87; 16,72</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-16,74; 7,81</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-9,81; 17,76</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-0,21; 29,7</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-25,55; 1,38</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-24,7; 6,26</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>5,29</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,97</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>7,9</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,32</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>5,22</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6,01</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 18,83</t>
+          <t>-9,57; 18,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 10,62</t>
+          <t>-19,64; 8,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-12,06; 21,93</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-7,88; 15,27</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 14,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-3,97; 18,72</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,32; 17,02</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-12,05; 11,83</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-3,89; 13,87</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-8,86; 8,59</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,31; 14,78</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-9,24; 8,75</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-7,11; 12,7</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,69%</t>
+          <t>-14,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>17,18%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>14,2%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>23,61%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>15,91%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0,03%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>16,27%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,47%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>18,72%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>8,41%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,63; 87,14</t>
+          <t>-25,72; 78,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-43,59; 48,78</t>
+          <t>-47,66; 35,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-32,54; 92,4</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-19,85; 53,26</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 47,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-9,79; 67,76</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-16,05; 62,4</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-31,54; 44,25</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-10,16; 52,79</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-23,78; 31,7</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-8,92; 54,08</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-24,92; 31,78</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-18,47; 46,32</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>3,62</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,91</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>1,34</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>6,04</t>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,31</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 3,42</t>
+          <t>-5,9; 3,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 4,6</t>
+          <t>-4,51; 4,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,73; 9,79</t>
+          <t>-1,98; 8,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 4,37</t>
+          <t>-1,96; 8,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 6,07</t>
+          <t>-2,94; 7,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,92; 11,24</t>
+          <t>-2,43; 5,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 3,03</t>
+          <t>-1,0; 6,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 4,29</t>
+          <t>-0,7; 7,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,84; 9,18</t>
+          <t>-2,2; 6,31</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-5,64; 3,46</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 2,49</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 4,14</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 6,93</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 6,16</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 3,82</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,14%</t>
+          <t>-5,16%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>-0,54%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-0,29%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>5,27%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-2,06%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-0,49%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3,61%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>8,95%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>6,46%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1,47%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,0; 10,2</t>
+          <t>-15,3; 9,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 13,74</t>
+          <t>-11,73; 12,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,82; 29,28</t>
+          <t>-5,03; 24,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 12,1</t>
+          <t>-4,84; 23,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 17,04</t>
+          <t>-6,69; 18,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,04; 31,47</t>
+          <t>-5,93; 14,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 8,85</t>
+          <t>-2,72; 18,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 12,26</t>
+          <t>-1,77; 21,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,77; 26,32</t>
+          <t>-5,34; 16,05</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-12,08; 8,37</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-8,03; 7,19</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 11,75</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 19,78</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-1,72; 16,13</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-6,31; 9,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
